--- a/data/long_razon/P23_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_4-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-35,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 16,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 109,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-50,24; 30,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 181,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 106,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 32,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 30,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 14,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 59,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 12,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 33,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-24,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-27,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 22,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 34,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,39; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 133,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,46; -1,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 59,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 4,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 24,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 73,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; -4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 38,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_4-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4300930995269396</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.05865200405105758</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1076169909678486</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.01143921232899813</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3234865658507833</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.0444902798210071</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2417393229748787</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1748530065668009</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.0212963989766243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.746719068085541</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.369125358449758</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4355526580254956</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4055070592923236</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1307269371296579</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4713638856498633</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5225833812418615</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1353064648201349</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3487357426699824</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.01680520751580633</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.11614274962608</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.116538641181637</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7707544346079618</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.036649787718862</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5827728269412078</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.09380963880980656</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8376275308037234</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5114109229528889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1570779218701497</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.09863218603106329</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4544328420755077</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2088566496389771</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2000407511502449</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.03145337211347608</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.04392987979708932</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.0406133804000537</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2294179518517959</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1993332991695853</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3659305138176271</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.0546438774764042</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4174163488794702</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.07205228498888845</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2381060646965052</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2659285266965665</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1813993361076335</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.06668936606057339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.7487710542785491</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2808258158829404</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.296866680244499</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09927855132075673</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6161668147406203</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.4542508341980655</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2335688150065075</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3007067534664735</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6668391219937745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.166150749699553</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1390483823216692</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.002647440352635</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3800989495181318</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.6680344493236674</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.04959390113450461</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2872048876302666</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2218464181836608</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.4272782153282637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4838180788441295</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4313130642441206</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2918559692484214</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5719306459302702</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2368336580808207</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.23916825881968</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4778132192828672</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.07354895198272911</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.1151881958049362</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.3798535061673685</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2958322796809093</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.183379232437061</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.0498120048382974</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.309850799769846</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.4371402959974512</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.01357777056912506</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.5259532264768307</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.8906648566127399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.08167296821619882</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.07374689765768851</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5275346825858697</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2303619247059759</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3598609144896404</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.01929932274178517</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1610105360147909</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1233254273819758</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2415220112068653</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3024009587778234</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2697711949835728</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1468185256904388</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3840934196315894</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.134253678552496</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1895367652423404</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3033942457289013</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.03000462631682333</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.03828673638697938</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2371400205384308</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2133425999687253</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.066141599333691</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.04429960211287406</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.651622214264499</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2706237639481632</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.0008234114959169763</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3096714879692529</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4840936894571734</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
